--- a/Documents/snapCurve.xlsx
+++ b/Documents/snapCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\GitHub\VehicleControlAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB1E34-FFBA-4694-945B-9B99ECC75386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAF171-16D5-45CC-B020-20B5AA84F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91BF15F5-B3CA-4A52-A5A1-A9B53541D8FD}"/>
   </bookViews>
@@ -125,6 +125,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -272,19 +302,19 @@
                   <c:v>-0.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.38</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.15</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1</c:v>
+                  <c:v>-7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.06</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.02</c:v>
@@ -302,19 +332,19 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.53</c:v>
@@ -341,432 +371,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1B8-4402-82BA-3A78EC334029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.19999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.9999999999999006E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.9999999999998997E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-1.5707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3694384060045657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.1592794807274085</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.92729521800161097</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.79539883018414193</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.722734247813414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.64350110879328271</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.55481103298006951</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.45102681179626014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.38976073279747458</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.31756042929151818</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.2240752853018193</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.14153947332442729</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14153947332442729</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2240752853018193</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.31756042929152151</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.38976073279747458</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45102681179626236</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.55481103298007151</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64350110879328426</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.72273424781341555</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.79539883018414348</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.92729521800161219</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1592794807274085</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3694384060045657</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5707963267948966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C1B8-4402-82BA-3A78EC334029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>b</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.29999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.19999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.9999999999999006E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.9999999999998997E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-1.5707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.2566370614359172</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.94247779607693793</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.62831853071795707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.47123889803846736</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.39269908169872259</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.31415926535897776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.2356194490192329</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.1570796326794881</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.11780972450961724</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.8539816339743246E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9269908169872414E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.5707963267948967E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5707963267948967E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9269908169872414E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.8539816339744828E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11780972450961724</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23561944901923448</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.31415926535897931</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.39269908169872414</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.47123889803846897</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.62831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.94247779607693793</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2566370614359172</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5707963267948966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C1B8-4402-82BA-3A78EC334029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -780,6 +384,476 @@
         </c:dLbls>
         <c:axId val="752345759"/>
         <c:axId val="752346591"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>a</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.39999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.29999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.249999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.19999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-9.9999999999999006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-4.9999999999998997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$C$2:$C$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>-1.5707963267948966</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.3694384060045657</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.1592794807274085</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.92729521800161097</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.79539883018414193</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.722734247813414</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.64350110879328271</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.55481103298006951</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-0.45102681179626014</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-0.38976073279747458</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.31756042929151818</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.2240752853018193</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.14153947332442729</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14153947332442729</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.2240752853018193</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.31756042929152151</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.38976073279747458</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.45102681179626236</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.55481103298007151</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.64350110879328426</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.72273424781341555</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.79539883018414348</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.92729521800161219</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.1592794807274085</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.3694384060045657</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.5707963267948966</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C1B8-4402-82BA-3A78EC334029}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>b</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$2:$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.39999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.29999999999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.249999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.19999999999999901</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-9.9999999999999006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-4.9999999999998997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$D$2:$D$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>-1.5707963267948966</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.9272952180016123</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.64350110879328437</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.41151684606748695</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-0.30469265401539647</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.25268025514207765</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.20135792079032977</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.150568272776685</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-0.1001674211615588</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-7.5070491076716539E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-5.0020856805769016E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-2.5002604899361135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-1.0000166674167112E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.0000166674167112E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.5002604899361139E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.0020856805770016E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.5070491076716539E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.1001674211615598</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.15056827277668605</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.20135792079033082</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.25268025514207865</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.30469265401539752</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.41151684606748801</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.64350110879328437</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.9272952180016123</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.5707963267948966</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C1B8-4402-82BA-3A78EC334029}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="752345759"/>
@@ -1529,8 +1603,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1563,14 +1637,14 @@
   <autoFilter ref="A1:D28" xr:uid="{BBD3ECE6-D6A7-4786-8557-2E475945B31F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4F99753A-56A8-4A43-9AEB-C45F6EA56CCD}" name="x"/>
-    <tableColumn id="2" xr3:uid="{A92E1373-AA4D-4266-9F38-09BE723E7A09}" name="y" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{A92E1373-AA4D-4266-9F38-09BE723E7A09}" name="y" dataDxfId="2">
       <calculatedColumnFormula>Tabelle1[[#This Row],[a]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B5A40F70-0884-4B4D-9413-357B1F2E2B36}" name="a" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{B5A40F70-0884-4B4D-9413-357B1F2E2B36}" name="a" dataDxfId="1">
       <calculatedColumnFormula>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7952C120-F6BF-4319-89FF-DC7F3243894B}" name="b" dataDxfId="0">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[x]]*PI()/2</calculatedColumnFormula>
+      <calculatedColumnFormula>ASIN(Tabelle1[[#This Row],[x]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1876,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F587AF8-865E-4DDF-8AB4-BE6090B5A364}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1983,7 @@
         <v>-1.5707963267948966</v>
       </c>
       <c r="D2">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>-1.5707963267948966</v>
       </c>
     </row>
@@ -1925,8 +1999,8 @@
         <v>-1.3694384060045657</v>
       </c>
       <c r="D3">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-1.2566370614359172</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.9272952180016123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,8 +2015,8 @@
         <v>-1.1592794807274085</v>
       </c>
       <c r="D4">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.94247779607693793</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.64350110879328437</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,8 +2031,8 @@
         <v>-0.92729521800161097</v>
       </c>
       <c r="D5">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.62831853071795707</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.41151684606748695</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,8 +2047,8 @@
         <v>-0.79539883018414193</v>
       </c>
       <c r="D6">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.47123889803846736</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.30469265401539647</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,8 +2063,8 @@
         <v>-0.722734247813414</v>
       </c>
       <c r="D7">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.39269908169872259</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.25268025514207765</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,15 +2072,15 @@
         <v>-0.19999999999999901</v>
       </c>
       <c r="B8">
-        <v>-0.38</v>
+        <v>-0.35</v>
       </c>
       <c r="C8">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-0.64350110879328271</v>
       </c>
       <c r="D8">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.31415926535897776</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.20135792079032977</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,15 +2088,15 @@
         <v>-0.149999999999999</v>
       </c>
       <c r="B9">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="C9">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-0.55481103298006951</v>
       </c>
       <c r="D9">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.2356194490192329</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.150568272776685</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,15 +2104,15 @@
         <v>-9.9999999999999006E-2</v>
       </c>
       <c r="B10">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="C10">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-0.45102681179626014</v>
       </c>
       <c r="D10">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.1570796326794881</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-0.1001674211615588</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2046,15 +2120,15 @@
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C11" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-0.38976073279747458</v>
       </c>
       <c r="D11">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-0.11780972450961724</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-7.5070491076716539E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,15 +2136,15 @@
         <v>-4.9999999999998997E-2</v>
       </c>
       <c r="B12">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="C12">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-0.31756042929151818</v>
       </c>
       <c r="D12">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-7.8539816339743246E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-5.0020856805769016E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,8 +2159,8 @@
         <v>-0.2240752853018193</v>
       </c>
       <c r="D13">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-3.9269908169872414E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-2.5002604899361135E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,8 +2175,8 @@
         <v>-0.14153947332442729</v>
       </c>
       <c r="D14">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>-1.5707963267948967E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-1.0000166674167112E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0</v>
       </c>
     </row>
@@ -2134,8 +2208,8 @@
         <v>0.14153947332442729</v>
       </c>
       <c r="D16">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>1.5707963267948967E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>1.0000166674167112E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2150,8 +2224,8 @@
         <v>0.2240752853018193</v>
       </c>
       <c r="D17">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>3.9269908169872414E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>2.5002604899361139E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,15 +2233,15 @@
         <v>0.05</v>
       </c>
       <c r="B18">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C18">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.31756042929152151</v>
       </c>
       <c r="D18">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>7.8539816339744828E-2</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>5.0020856805770016E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,15 +2249,15 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.38976073279747458</v>
       </c>
       <c r="D19">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.11780972450961724</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>7.5070491076716539E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,15 +2265,15 @@
         <v>0.1</v>
       </c>
       <c r="B20">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.45102681179626236</v>
       </c>
       <c r="D20">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.15707963267948966</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.1001674211615598</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,15 +2281,15 @@
         <v>0.15</v>
       </c>
       <c r="B21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.55481103298007151</v>
       </c>
       <c r="D21">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.23561944901923448</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.15056827277668605</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,15 +2297,15 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="C22">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.64350110879328426</v>
       </c>
       <c r="D22">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.31415926535897931</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.20135792079033082</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,8 +2320,8 @@
         <v>0.72273424781341555</v>
       </c>
       <c r="D23">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.39269908169872414</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.25268025514207865</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,8 +2336,8 @@
         <v>0.79539883018414348</v>
       </c>
       <c r="D24">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.47123889803846897</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.30469265401539752</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,8 +2352,8 @@
         <v>0.92729521800161219</v>
       </c>
       <c r="D25">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.62831853071795862</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.41151684606748801</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,8 +2368,8 @@
         <v>1.1592794807274085</v>
       </c>
       <c r="D26">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>0.94247779607693793</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.64350110879328437</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,8 +2384,8 @@
         <v>1.3694384060045657</v>
       </c>
       <c r="D27">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
-        <v>1.2566370614359172</v>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.9272952180016123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,7 +2401,7 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="D28">
-        <f>Tabelle1[[#This Row],[x]]*PI()/2</f>
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>1.5707963267948966</v>
       </c>
     </row>

--- a/Documents/snapCurve.xlsx
+++ b/Documents/snapCurve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\GitHub\VehicleControlAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAF171-16D5-45CC-B020-20B5AA84F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF79816E-8FD7-4731-865C-DAEF63B8EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91BF15F5-B3CA-4A52-A5A1-A9B53541D8FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -125,39 +131,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.5773453383873912E-2"/>
+          <c:y val="6.1925522252497735E-2"/>
+          <c:w val="0.96993545043610652"/>
+          <c:h val="0.91264305177111715"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -189,75 +175,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$28</c:f>
+              <c:f>Tabelle1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.39999999999999902</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.29999999999999899</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.249999999999999</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19999999999999901</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.149999999999999</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.9999999999999006E-2</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.4999999999999997E-2</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.9999999999998997E-2</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.5000000000000001E-2</c:v>
+                  <c:v>-0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.3</c:v>
@@ -266,12 +252,18 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -279,89 +271,95 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$28</c:f>
+              <c:f>Tabelle1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>-1.5707963267948966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.37</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1599999999999999</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.86</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-1.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>-0.66</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1</c:v>
+                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-0.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.04</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-0.02</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-5.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.86</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.37</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1.5707963267948966</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,6 +369,456 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1B8-4402-82BA-3A78EC334029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4706289056333368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3694384060045657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1592794807274085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.92729521800161219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.79539883018414348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.64350110879328426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.55481103298007151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.51559400624609042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.45102681179626236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.31756042929152151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20033484232311971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.14153947332442729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14153947332442729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20033484232311971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31756042929152151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45102681179626236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51559400624609042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55481103298007151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64350110879328426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79539883018414348</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92729521800161219</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1592794807274085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3694384060045657</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4706289056333368</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C1B8-4402-82BA-3A78EC334029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.119769514998634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.9272952180016123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.64350110879328437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41151684606748801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.30469265401539752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20135792079033082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15056827277668602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13036897970314554</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1001674211615598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.0020856805770016E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.0001333573390494E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0000166674167112E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0000166674167112E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0001333573390494E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0020856805770016E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1001674211615598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13036897970314554</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15056827277668605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20135792079033082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30469265401539752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41151684606748801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52359877559829893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64350110879328437</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9272952180016123</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1197695149986342</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C1B8-4402-82BA-3A78EC334029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -388,21 +836,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="3"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$C$1</c15:sqref>
+                          <c15:sqref>Tabelle1!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>a</c:v>
+                        <c:v>c</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -410,7 +858,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent4"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -424,78 +872,78 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$28</c15:sqref>
+                          <c15:sqref>Tabelle1!$A$2:$A$30</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="29"/>
                       <c:pt idx="0">
                         <c:v>-1</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>-0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>-0.8</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>-0.6</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-0.39999999999999902</c:v>
-                      </c:pt>
                       <c:pt idx="4">
-                        <c:v>-0.29999999999999899</c:v>
+                        <c:v>-0.5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-0.249999999999999</c:v>
+                        <c:v>-0.4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-0.19999999999999901</c:v>
+                        <c:v>-0.3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-0.149999999999999</c:v>
+                        <c:v>-0.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-9.9999999999999006E-2</c:v>
+                        <c:v>-0.15</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-7.4999999999999997E-2</c:v>
+                        <c:v>-0.13</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-4.9999999999998997E-2</c:v>
+                        <c:v>-0.1</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>-2.5000000000000001E-2</c:v>
+                        <c:v>-0.05</c:v>
                       </c:pt>
                       <c:pt idx="12">
+                        <c:v>-0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
                         <c:v>-0.01</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="14">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="15">
                         <c:v>0.01</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.5000000000000001E-2</c:v>
-                      </c:pt>
                       <c:pt idx="16">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7.4999999999999997E-2</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>0.1</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0.15</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="21">
                         <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.25</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>0.3</c:v>
@@ -504,12 +952,18 @@
                         <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="24">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
                         <c:v>0.6</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="26">
                         <c:v>0.8</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="27">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -520,92 +974,98 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$C$2:$C$28</c15:sqref>
+                          <c15:sqref>Tabelle1!$E$2:$E$30</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="29"/>
                       <c:pt idx="0">
                         <c:v>-1.5707963267948966</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-1.3694384060045657</c:v>
+                        <c:v>-1.4137166941154069</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-1.1592794807274085</c:v>
+                        <c:v>-1.2566370614359172</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-0.92729521800161097</c:v>
+                        <c:v>-0.94247779607693793</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-0.79539883018414193</c:v>
+                        <c:v>-0.78539816339744828</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-0.722734247813414</c:v>
+                        <c:v>-0.62831853071795862</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-0.64350110879328271</c:v>
+                        <c:v>-0.47123889803846897</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-0.55481103298006951</c:v>
+                        <c:v>-0.31415926535897931</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-0.45102681179626014</c:v>
+                        <c:v>-0.23561944901923448</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-0.38976073279747458</c:v>
+                        <c:v>-0.20420352248333656</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-0.31756042929151818</c:v>
+                        <c:v>-0.15707963267948966</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>-0.2240752853018193</c:v>
+                        <c:v>-7.8539816339744828E-2</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>-0.14153947332442729</c:v>
+                        <c:v>-3.1415926535897934E-2</c:v>
                       </c:pt>
                       <c:pt idx="13">
+                        <c:v>-1.5707963267948967E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.14153947332442729</c:v>
-                      </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.2240752853018193</c:v>
+                        <c:v>1.5707963267948967E-2</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.31756042929152151</c:v>
+                        <c:v>3.1415926535897934E-2</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.38976073279747458</c:v>
+                        <c:v>7.8539816339744828E-2</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.45102681179626236</c:v>
+                        <c:v>0.15707963267948966</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.55481103298007151</c:v>
+                        <c:v>0.20420352248333656</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.64350110879328426</c:v>
+                        <c:v>0.23561944901923448</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.72273424781341555</c:v>
+                        <c:v>0.31415926535897931</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.79539883018414348</c:v>
+                        <c:v>0.47123889803846897</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.92729521800161219</c:v>
+                        <c:v>0.62831853071795862</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1.1592794807274085</c:v>
+                        <c:v>0.78539816339744828</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>1.3694384060045657</c:v>
+                        <c:v>0.94247779607693793</c:v>
                       </c:pt>
                       <c:pt idx="26">
+                        <c:v>1.2566370614359172</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.4137166941154069</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>1.5707963267948966</c:v>
                       </c:pt>
                     </c:numCache>
@@ -614,240 +1074,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-C1B8-4402-82BA-3A78EC334029}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>b</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-0.39999999999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-0.29999999999999899</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-0.249999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-0.19999999999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-0.149999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-9.9999999999999006E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-7.4999999999999997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-4.9999999999998997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-2.5000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.5000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7.4999999999999997E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$D$2:$D$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
-                      <c:pt idx="0">
-                        <c:v>-1.5707963267948966</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-0.9272952180016123</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-0.64350110879328437</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-0.41151684606748695</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-0.30469265401539647</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-0.25268025514207765</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-0.20135792079032977</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-0.150568272776685</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-0.1001674211615588</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-7.5070491076716539E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-5.0020856805769016E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-2.5002604899361135E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-1.0000166674167112E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1.0000166674167112E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.5002604899361139E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>5.0020856805770016E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>7.5070491076716539E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.1001674211615598</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.15056827277668605</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.20135792079033082</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.25268025514207865</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.30469265401539752</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.41151684606748801</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.64350110879328437</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.9272952180016123</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1.5707963267948966</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-C1B8-4402-82BA-3A78EC334029}"/>
+                    <c16:uniqueId val="{00000000-7F09-438A-9A08-21EF4F102385}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -923,8 +1150,8 @@
         <c:axId val="752346591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
-          <c:min val="-1.5"/>
+          <c:max val="1.7500000000000002"/>
+          <c:min val="-1.7500000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -982,6 +1209,7 @@
         <c:crossAx val="752345759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1595,15 +1823,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1633,18 +1861,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBD3ECE6-D6A7-4786-8557-2E475945B31F}" name="Tabelle1" displayName="Tabelle1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28" xr:uid="{BBD3ECE6-D6A7-4786-8557-2E475945B31F}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBD3ECE6-D6A7-4786-8557-2E475945B31F}" name="Tabelle1" displayName="Tabelle1" ref="A1:E30" totalsRowShown="0">
+  <autoFilter ref="A1:E30" xr:uid="{BBD3ECE6-D6A7-4786-8557-2E475945B31F}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4F99753A-56A8-4A43-9AEB-C45F6EA56CCD}" name="x"/>
-    <tableColumn id="2" xr3:uid="{A92E1373-AA4D-4266-9F38-09BE723E7A09}" name="y" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{A92E1373-AA4D-4266-9F38-09BE723E7A09}" name="y" dataDxfId="3">
       <calculatedColumnFormula>Tabelle1[[#This Row],[a]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B5A40F70-0884-4B4D-9413-357B1F2E2B36}" name="a" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{B5A40F70-0884-4B4D-9413-357B1F2E2B36}" name="a" dataDxfId="2">
       <calculatedColumnFormula>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7952C120-F6BF-4319-89FF-DC7F3243894B}" name="b" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{7952C120-F6BF-4319-89FF-DC7F3243894B}" name="b" dataDxfId="1">
       <calculatedColumnFormula>ASIN(Tabelle1[[#This Row],[x]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CCB004E9-E2AD-4375-99EB-396A69FD7A5C}" name="c" dataDxfId="0">
+      <calculatedColumnFormula>PI()/2*Tabelle1[[#This Row],[x]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1948,15 +2179,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F587AF8-865E-4DDF-8AB4-BE6090B5A364}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1969,13 +2200,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>-A30</f>
         <v>-1</v>
       </c>
       <c r="B2">
-        <f>Tabelle1[[#This Row],[a]]</f>
+        <f>-B30</f>
         <v>-1.5707963267948966</v>
       </c>
       <c r="C2">
@@ -1986,286 +2221,384 @@
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>-1.5707963267948966</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.8</v>
+        <f>-A29</f>
+        <v>-0.9</v>
       </c>
       <c r="B3">
-        <v>-1.37</v>
+        <f>-B29</f>
+        <v>-1.5</v>
       </c>
       <c r="C3">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-1.3694384060045657</v>
+        <v>-1.4706289056333368</v>
       </c>
       <c r="D3">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-1.119769514998634</v>
+      </c>
+      <c r="E3" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-1.4137166941154069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>-A28</f>
+        <v>-0.8</v>
+      </c>
+      <c r="B4">
+        <f>-B28</f>
+        <v>-1.4</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
+        <v>-1.3694384060045657</v>
+      </c>
+      <c r="D4" s="1">
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>-0.9272952180016123</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E4" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-1.2566370614359172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>-A27</f>
         <v>-0.6</v>
       </c>
-      <c r="B4">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <f>-B27</f>
+        <v>-1.18</v>
+      </c>
+      <c r="C5">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>-1.1592794807274085</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>-0.64350110879328437</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-0.39999999999999902</v>
-      </c>
-      <c r="B5">
-        <v>-0.86</v>
-      </c>
-      <c r="C5">
-        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.92729521800161097</v>
-      </c>
-      <c r="D5">
-        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.41151684606748695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.94247779607693793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.29999999999999899</v>
+        <f>-A26</f>
+        <v>-0.5</v>
       </c>
       <c r="B6">
-        <v>-0.66</v>
+        <f>-B26</f>
+        <v>-1.07</v>
       </c>
       <c r="C6">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.79539883018414193</v>
+        <v>-1.0471975511965976</v>
       </c>
       <c r="D6">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.30469265401539647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.52359877559829893</v>
+      </c>
+      <c r="E6" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.249999999999999</v>
+        <f>-A25</f>
+        <v>-0.4</v>
       </c>
       <c r="B7">
-        <v>-0.53</v>
+        <f>-B25</f>
+        <v>-0.95</v>
       </c>
       <c r="C7">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.722734247813414</v>
+        <v>-0.92729521800161219</v>
       </c>
       <c r="D7">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.25268025514207765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41151684606748801</v>
+      </c>
+      <c r="E7" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.62831853071795862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.19999999999999901</v>
+        <f>-A24</f>
+        <v>-0.3</v>
       </c>
       <c r="B8">
-        <v>-0.35</v>
+        <f>-B24</f>
+        <v>-0.82</v>
       </c>
       <c r="C8">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.64350110879328271</v>
+        <v>-0.79539883018414348</v>
       </c>
       <c r="D8">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.20135792079032977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30469265401539752</v>
+      </c>
+      <c r="E8" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.47123889803846897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-0.149999999999999</v>
+        <f>-A23</f>
+        <v>-0.2</v>
       </c>
       <c r="B9">
-        <v>-0.2</v>
+        <f>-B23</f>
+        <v>-0.66</v>
       </c>
       <c r="C9">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.55481103298006951</v>
+        <v>-0.64350110879328426</v>
       </c>
       <c r="D9">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.150568272776685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20135792079033082</v>
+      </c>
+      <c r="E9" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.31415926535897931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-9.9999999999999006E-2</v>
+        <f>-A22</f>
+        <v>-0.15</v>
       </c>
       <c r="B10">
-        <v>-0.1</v>
+        <f>-B22</f>
+        <v>-0.52</v>
       </c>
       <c r="C10">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.45102681179626014</v>
+        <v>-0.55481103298007151</v>
       </c>
       <c r="D10">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-0.1001674211615588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.15056827277668602</v>
+      </c>
+      <c r="E10" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.23561944901923448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-7.4999999999999997E-2</v>
+        <f>-A21</f>
+        <v>-0.13</v>
       </c>
       <c r="B11" s="1">
-        <v>-7.0000000000000007E-2</v>
+        <f>-B21</f>
+        <v>-0.42</v>
       </c>
       <c r="C11" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.38976073279747458</v>
-      </c>
-      <c r="D11">
+        <v>-0.51559400624609042</v>
+      </c>
+      <c r="D11" s="1">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-7.5070491076716539E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.13036897970314554</v>
+      </c>
+      <c r="E11" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.20420352248333656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-4.9999999999998997E-2</v>
+        <f>-A20</f>
+        <v>-0.1</v>
       </c>
       <c r="B12">
-        <v>-0.04</v>
+        <f>-B20</f>
+        <v>-0.25</v>
       </c>
       <c r="C12">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.31756042929151818</v>
+        <v>-0.45102681179626236</v>
       </c>
       <c r="D12">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-5.0020856805769016E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.1001674211615598</v>
+      </c>
+      <c r="E12" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-0.15707963267948966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-2.5000000000000001E-2</v>
+        <f>-A19</f>
+        <v>-0.05</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.02</v>
+        <f>-B19</f>
+        <v>-0.08</v>
       </c>
       <c r="C13" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.2240752853018193</v>
-      </c>
-      <c r="D13">
+        <v>-0.31756042929152151</v>
+      </c>
+      <c r="D13" s="1">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>-2.5002604899361135E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.0020856805770016E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-7.8539816339744828E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-0.01</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-5.0000000000000001E-3</v>
+        <f>-A18</f>
+        <v>-0.02</v>
+      </c>
+      <c r="B14">
+        <f>-B18</f>
+        <v>-0.02</v>
       </c>
       <c r="C14" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>-0.14153947332442729</v>
+        <v>-0.20033484232311971</v>
       </c>
       <c r="D14">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>-2.0001333573390494E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-3.1415926535897934E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>-A17</f>
+        <v>-0.01</v>
+      </c>
+      <c r="B15">
+        <f>-B17</f>
+        <v>-0.01</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
+        <v>-0.14153947332442729</v>
+      </c>
+      <c r="D15">
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>-1.0000166674167112E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E15" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>-1.5707963267948967E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f>Tabelle1[[#This Row],[a]]</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E16" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>0.01</v>
       </c>
-      <c r="B16" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.14153947332442729</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>1.0000166674167112E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="E17" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>1.5707963267948967E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0.02</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B18" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="1">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>0.2240752853018193</v>
-      </c>
-      <c r="D17">
+        <v>0.20033484232311971</v>
+      </c>
+      <c r="D18">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>2.5002604899361139E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>2.0001333573390494E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>3.1415926535897934E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>0.05</v>
       </c>
-      <c r="B18">
-        <v>0.04</v>
-      </c>
-      <c r="C18">
+      <c r="B19">
+        <v>0.08</v>
+      </c>
+      <c r="C19">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.31756042929152151</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>5.0020856805770016E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>0.38976073279747458</v>
-      </c>
-      <c r="D19">
-        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>7.5070491076716539E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>7.8539816339744828E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.1</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
@@ -2275,61 +2608,77 @@
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.1001674211615598</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.15707963267948966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
+        <v>0.51559400624609042</v>
+      </c>
+      <c r="D21" s="1">
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.13036897970314554</v>
+      </c>
+      <c r="E21" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.20420352248333656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>0.15</v>
       </c>
-      <c r="B21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
+      <c r="B22">
+        <v>0.52</v>
+      </c>
+      <c r="C22">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.55481103298007151</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.15056827277668605</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E22" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.23561944901923448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>0.2</v>
       </c>
-      <c r="B22">
-        <v>0.35</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>0.66</v>
+      </c>
+      <c r="C23">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>0.64350110879328426</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.20135792079033082</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.25</v>
-      </c>
-      <c r="B23">
-        <v>0.53</v>
-      </c>
-      <c r="C23">
-        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
-        <v>0.72273424781341555</v>
-      </c>
-      <c r="D23">
-        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
-        <v>0.25268025514207865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.31415926535897931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
       <c r="B24">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="C24">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
@@ -2339,13 +2688,17 @@
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.30469265401539752</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.47123889803846897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.4</v>
       </c>
-      <c r="B25">
-        <v>0.86</v>
+      <c r="B25" s="1">
+        <v>0.95</v>
       </c>
       <c r="C25">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
@@ -2355,53 +2708,109 @@
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.41151684606748801</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.62831853071795862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="D26" s="1">
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>0.52359877559829893</v>
+      </c>
+      <c r="E26" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>0.6</v>
       </c>
-      <c r="B26">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C26">
+      <c r="B27" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="C27">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>1.1592794807274085</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.64350110879328437</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E27" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>0.94247779607693793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.8</v>
       </c>
-      <c r="B27">
-        <v>1.37</v>
-      </c>
-      <c r="C27">
+      <c r="B28" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C28">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>1.3694384060045657</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
         <v>0.9272952180016123</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E28" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>1.2566370614359172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="1">
+        <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
+        <v>1.4706289056333368</v>
+      </c>
+      <c r="D29" s="1">
+        <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>1.1197695149986342</v>
+      </c>
+      <c r="E29" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
+        <v>1.4137166941154069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <f>Tabelle1[[#This Row],[a]]</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <f>SIGN(Tabelle1[[#This Row],[x]])*ACOS(1-ABS(Tabelle1[[#This Row],[x]]))</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <f>ASIN(Tabelle1[[#This Row],[x]])</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E30" s="1">
+        <f>PI()/2*Tabelle1[[#This Row],[x]]</f>
         <v>1.5707963267948966</v>
       </c>
     </row>
